--- a/Back/保费完成光荣榜.xlsx
+++ b/Back/保费完成光荣榜.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="新表" sheetId="4" r:id="rId1"/>
@@ -179,9 +179,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="37">
@@ -287,6 +287,14 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -294,16 +302,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -317,9 +357,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -339,15 +385,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -362,62 +425,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -429,27 +437,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -465,7 +459,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,91 +519,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,7 +549,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,55 +633,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,16 +669,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,22 +707,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,17 +737,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,152 +768,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -978,9 +972,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,9 +988,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1035,15 +1023,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1053,7 +1035,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1451,25 +1433,25 @@
   <dimension ref="A1:K122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G38" sqref="A1:G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.57142857142857" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="7.57407407407407" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="7.57142857142857" style="30" customWidth="1"/>
-    <col min="2" max="2" width="15.5714285714286" style="30" customWidth="1"/>
-    <col min="3" max="3" width="8.42857142857143" style="30" customWidth="1"/>
-    <col min="4" max="4" width="9" style="30" customWidth="1"/>
-    <col min="5" max="5" width="12.8571428571429" style="30" customWidth="1"/>
-    <col min="6" max="6" width="11.4285714285714" style="31" customWidth="1"/>
-    <col min="7" max="7" width="7.85714285714286" style="32" customWidth="1"/>
-    <col min="8" max="9" width="7.57142857142857" style="28" customWidth="1"/>
-    <col min="10" max="10" width="10.8571428571429" style="28" customWidth="1"/>
-    <col min="11" max="16374" width="7.57142857142857" style="28" customWidth="1"/>
-    <col min="16375" max="16384" width="7.57142857142857" style="28"/>
+    <col min="1" max="1" width="9.66666666666667" style="28" customWidth="1"/>
+    <col min="2" max="2" width="15.5740740740741" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.42592592592593" style="28" customWidth="1"/>
+    <col min="4" max="4" width="9" style="28" customWidth="1"/>
+    <col min="5" max="5" width="12.8611111111111" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.4259259259259" style="29" customWidth="1"/>
+    <col min="7" max="7" width="7.86111111111111" style="30" customWidth="1"/>
+    <col min="8" max="9" width="7.57407407407407" style="26" customWidth="1"/>
+    <col min="10" max="10" width="10.8611111111111" style="26" customWidth="1"/>
+    <col min="11" max="16374" width="7.57407407407407" style="26" customWidth="1"/>
+    <col min="16375" max="16384" width="7.57407407407407" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:7">
+    <row r="1" ht="20.4" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1462,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="36" spans="1:7">
+    <row r="2" ht="34.8" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1513,10 +1495,10 @@
       <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="31">
         <v>3550</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="32">
         <v>4604.5200060001</v>
       </c>
       <c r="F3" s="11">
@@ -1532,10 +1514,10 @@
       <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="31">
         <v>620</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="32">
         <v>1064.44680599999</v>
       </c>
       <c r="F4" s="11">
@@ -1551,10 +1533,10 @@
       <c r="C5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="31">
         <v>660</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="32">
         <v>803.757601</v>
       </c>
       <c r="F5" s="11">
@@ -1564,7 +1546,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" ht="18" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
@@ -1590,13 +1572,13 @@
       <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="31">
         <v>1050</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="32">
         <v>1325.66223300002</v>
       </c>
       <c r="F7" s="11">
@@ -1609,13 +1591,13 @@
     <row r="8" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="31">
         <v>240</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="32">
         <v>295.298343999999</v>
       </c>
       <c r="F8" s="11">
@@ -1628,13 +1610,13 @@
     <row r="9" spans="1:7">
       <c r="A9" s="7"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="31">
         <v>80</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="32">
         <v>113.366264</v>
       </c>
       <c r="F9" s="11">
@@ -1644,7 +1626,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" ht="18" spans="1:7">
+    <row r="10" spans="1:7">
       <c r="A10" s="7"/>
       <c r="B10" s="13"/>
       <c r="C10" s="9" t="s">
@@ -1673,10 +1655,10 @@
       <c r="C11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="31">
         <v>4450</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="32">
         <v>5516.63073300017</v>
       </c>
       <c r="F11" s="11">
@@ -1692,10 +1674,10 @@
       <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="31">
         <v>220</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="32">
         <v>371.715654999999</v>
       </c>
       <c r="F12" s="11">
@@ -1711,10 +1693,10 @@
       <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="31">
         <v>160</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="32">
         <v>173.583892</v>
       </c>
       <c r="F13" s="11">
@@ -1724,7 +1706,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" ht="18" spans="1:7">
+    <row r="14" spans="1:7">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
@@ -1753,10 +1735,10 @@
       <c r="C15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="31">
         <v>1300</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="32">
         <v>1702.48026700003</v>
       </c>
       <c r="F15" s="11">
@@ -1772,10 +1754,10 @@
       <c r="C16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="31">
         <v>50</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="32">
         <v>128.424943000001</v>
       </c>
       <c r="F16" s="11">
@@ -1791,10 +1773,10 @@
       <c r="C17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="31">
         <v>50</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="32">
         <v>39.330987</v>
       </c>
       <c r="F17" s="11" t="s">
@@ -1804,7 +1786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="18" spans="1:7">
+    <row r="18" spans="1:7">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="s">
@@ -1823,20 +1805,20 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" ht="18" spans="1:7">
+    <row r="19" spans="1:7">
       <c r="A19" s="7">
         <v>5</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="9">
         <v>2450</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="32">
         <v>3009.49967500007</v>
       </c>
       <c r="F19" s="11">
@@ -1846,16 +1828,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" ht="18" spans="1:7">
+    <row r="20" spans="1:7">
       <c r="A20" s="7"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="9">
         <v>100</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="32">
         <v>101.650595999998</v>
       </c>
       <c r="F20" s="11">
@@ -1865,16 +1847,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="1:7">
+    <row r="21" spans="1:7">
       <c r="A21" s="7"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="9">
         <v>60</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="32">
         <v>21.878545</v>
       </c>
       <c r="F21" s="11" t="s">
@@ -1884,7 +1866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="1:7">
+    <row r="22" spans="1:7">
       <c r="A22" s="7"/>
       <c r="B22" s="13"/>
       <c r="C22" s="9" t="s">
@@ -1910,13 +1892,13 @@
       <c r="B23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="31">
         <v>3200</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="32">
         <v>3600.9640030001</v>
       </c>
       <c r="F23" s="11">
@@ -1929,13 +1911,13 @@
     <row r="24" spans="1:7">
       <c r="A24" s="7"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="31">
         <v>160</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="32">
         <v>189.180492000001</v>
       </c>
       <c r="F24" s="11">
@@ -1948,13 +1930,13 @@
     <row r="25" spans="1:7">
       <c r="A25" s="7"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="31">
         <v>60</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="32">
         <v>76.549354</v>
       </c>
       <c r="F25" s="11">
@@ -1964,7 +1946,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" ht="18" spans="1:7">
+    <row r="26" spans="1:7">
       <c r="A26" s="7"/>
       <c r="B26" s="13"/>
       <c r="C26" s="9" t="s">
@@ -1993,10 +1975,10 @@
       <c r="C27" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="31">
         <v>450</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="32">
         <v>506.574677999997</v>
       </c>
       <c r="F27" s="11">
@@ -2012,10 +1994,10 @@
       <c r="C28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="31">
         <v>100</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="32">
         <v>130.986835</v>
       </c>
       <c r="F28" s="11">
@@ -2031,10 +2013,10 @@
       <c r="C29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="31">
         <v>300</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="32">
         <v>239.566333</v>
       </c>
       <c r="F29" s="11" t="s">
@@ -2044,7 +2026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" ht="18" spans="1:7">
+    <row r="30" spans="1:7">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8" t="s">
@@ -2063,20 +2045,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" s="28" customFormat="1" spans="1:7">
+    <row r="31" s="26" customFormat="1" spans="1:7">
       <c r="A31" s="7">
         <v>8</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="31">
         <v>550</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="32">
         <v>573.708688999999</v>
       </c>
       <c r="F31" s="11">
@@ -2089,13 +2071,13 @@
     <row r="32" spans="1:7">
       <c r="A32" s="7"/>
       <c r="B32" s="13"/>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="31">
         <v>110</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="32">
         <v>114.844613</v>
       </c>
       <c r="F32" s="11">
@@ -2108,13 +2090,13 @@
     <row r="33" spans="1:7">
       <c r="A33" s="7"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="31">
         <v>50</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="32">
         <v>25.729926</v>
       </c>
       <c r="F33" s="11" t="s">
@@ -2124,7 +2106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" ht="18" spans="1:7">
+    <row r="34" spans="1:7">
       <c r="A34" s="7"/>
       <c r="B34" s="13"/>
       <c r="C34" s="9" t="s">
@@ -2153,10 +2135,10 @@
       <c r="C35" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="31">
         <v>17000</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="32">
         <v>20840.0402839995</v>
       </c>
       <c r="F35" s="11">
@@ -2172,10 +2154,10 @@
       <c r="C36" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="31">
         <v>1600</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="32">
         <v>2396.54828399995</v>
       </c>
       <c r="F36" s="11">
@@ -2191,10 +2173,10 @@
       <c r="C37" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="31">
         <v>1420</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="32">
         <v>1493.762902</v>
       </c>
       <c r="F37" s="11">
@@ -2204,7 +2186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" ht="18" spans="1:7">
+    <row r="38" spans="1:7">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="8" t="s">
@@ -2223,16 +2205,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" ht="18" spans="1:7">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="40"/>
-    </row>
-    <row r="40" ht="21" spans="1:7">
+    <row r="39" spans="1:7">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" ht="20.4" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
@@ -2243,7 +2225,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" ht="36" spans="1:7">
+    <row r="41" ht="34.8" spans="1:7">
       <c r="A41" s="4" t="s">
         <v>1</v>
       </c>
@@ -2276,16 +2258,16 @@
       <c r="C42" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="31">
         <v>50</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="32">
         <v>76.185992</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="20">
         <v>43705</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="22">
         <v>125</v>
       </c>
     </row>
@@ -2295,20 +2277,20 @@
       <c r="C43" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="33">
+      <c r="D43" s="31">
         <v>250</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="32">
         <v>734.588142</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="20">
         <v>43651</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="22">
         <v>179</v>
       </c>
     </row>
-    <row r="44" ht="18" spans="1:7">
+    <row r="44" spans="1:7">
       <c r="A44" s="7"/>
       <c r="B44" s="16"/>
       <c r="C44" s="8" t="s">
@@ -2337,16 +2319,16 @@
       <c r="C45" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="33">
+      <c r="D45" s="31">
         <v>650</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45" s="32">
         <v>1162.635878</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="20">
         <v>43698</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="22">
         <v>132</v>
       </c>
     </row>
@@ -2356,20 +2338,20 @@
       <c r="C46" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="33">
+      <c r="D46" s="31">
         <v>50</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E46" s="32">
         <v>22.455511</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" ht="18" spans="1:7">
+    <row r="47" spans="1:7">
       <c r="A47" s="7"/>
       <c r="B47" s="16"/>
       <c r="C47" s="8" t="s">
@@ -2398,16 +2380,16 @@
       <c r="C48" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="33">
+      <c r="D48" s="31">
         <v>420</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="32">
         <v>625.98086</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="20">
         <v>43733</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48" s="22">
         <v>97</v>
       </c>
     </row>
@@ -2417,20 +2399,20 @@
       <c r="C49" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="33">
+      <c r="D49" s="31">
         <v>20</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="32">
         <v>34.9122760000001</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="20">
         <v>43733</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="22">
         <v>97</v>
       </c>
     </row>
-    <row r="50" ht="18" spans="1:7">
+    <row r="50" spans="1:7">
       <c r="A50" s="7"/>
       <c r="B50" s="16"/>
       <c r="C50" s="8" t="s">
@@ -2459,39 +2441,39 @@
       <c r="C51" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="33">
+      <c r="D51" s="31">
         <v>500</v>
       </c>
-      <c r="E51" s="34">
+      <c r="E51" s="32">
         <v>731.001628999998</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="20">
         <v>43727</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="22">
         <v>103</v>
       </c>
     </row>
-    <row r="52" s="28" customFormat="1" spans="1:7">
+    <row r="52" s="26" customFormat="1" spans="1:7">
       <c r="A52" s="7"/>
       <c r="B52" s="16"/>
       <c r="C52" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="33">
+      <c r="D52" s="31">
         <v>55</v>
       </c>
-      <c r="E52" s="34">
+      <c r="E52" s="32">
         <v>47.5925940000002</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="23" t="s">
+      <c r="G52" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53" s="29" customFormat="1" ht="18" spans="1:7">
+    <row r="53" s="27" customFormat="1" spans="1:7">
       <c r="A53" s="7"/>
       <c r="B53" s="16"/>
       <c r="C53" s="8" t="s">
@@ -2520,16 +2502,16 @@
       <c r="C54" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="33">
+      <c r="D54" s="31">
         <v>580</v>
       </c>
-      <c r="E54" s="34">
+      <c r="E54" s="32">
         <v>886.242148000001</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="20">
         <v>43739</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="22">
         <v>91</v>
       </c>
     </row>
@@ -2539,20 +2521,20 @@
       <c r="C55" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="33">
+      <c r="D55" s="31">
         <v>30</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E55" s="32">
         <v>33.5557090000002</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="20">
         <v>43769</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="22">
         <v>61</v>
       </c>
     </row>
-    <row r="56" ht="18" spans="1:7">
+    <row r="56" spans="1:7">
       <c r="A56" s="7"/>
       <c r="B56" s="16"/>
       <c r="C56" s="8" t="s">
@@ -2578,42 +2560,42 @@
       <c r="B57" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="33">
+      <c r="D57" s="31">
         <v>400</v>
       </c>
-      <c r="E57" s="41">
+      <c r="E57" s="32">
         <v>522.275439</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F57" s="20">
         <v>43755</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="22">
         <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="7"/>
       <c r="B58" s="19"/>
-      <c r="C58" s="33" t="s">
+      <c r="C58" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="33">
+      <c r="D58" s="31">
         <v>30</v>
       </c>
-      <c r="E58" s="41">
+      <c r="E58" s="32">
         <v>20.708179</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G58" s="22" t="s">
+      <c r="G58" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" ht="18" spans="1:7">
+    <row r="59" spans="1:7">
       <c r="A59" s="7"/>
       <c r="B59" s="19"/>
       <c r="C59" s="9" t="s">
@@ -2622,13 +2604,13 @@
       <c r="D59" s="9">
         <v>430</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="10">
         <v>542.983618</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="20">
         <v>43760</v>
       </c>
-      <c r="G59" s="22">
+      <c r="G59" s="21">
         <v>70</v>
       </c>
     </row>
@@ -2642,16 +2624,16 @@
       <c r="C60" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="33">
+      <c r="D60" s="31">
         <v>350</v>
       </c>
-      <c r="E60" s="34">
+      <c r="E60" s="32">
         <v>355.223014999999</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="20">
         <v>43822</v>
       </c>
-      <c r="G60" s="23">
+      <c r="G60" s="22">
         <v>9</v>
       </c>
     </row>
@@ -2661,20 +2643,20 @@
       <c r="C61" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="33">
+      <c r="D61" s="31">
         <v>20</v>
       </c>
-      <c r="E61" s="34">
+      <c r="E61" s="32">
         <v>99.8166569999998</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="20">
         <v>43466</v>
       </c>
-      <c r="G61" s="23">
+      <c r="G61" s="22">
         <v>364</v>
       </c>
     </row>
-    <row r="62" ht="18" spans="1:7">
+    <row r="62" spans="1:7">
       <c r="A62" s="7"/>
       <c r="B62" s="16"/>
       <c r="C62" s="8" t="s">
@@ -2700,42 +2682,42 @@
       <c r="B63" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="33">
+      <c r="D63" s="31">
         <v>330</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E63" s="32">
         <v>438.619148999999</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="20">
         <v>43753</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="22">
         <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="7"/>
       <c r="B64" s="19"/>
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="33">
+      <c r="D64" s="31">
         <v>20</v>
       </c>
-      <c r="E64" s="34">
+      <c r="E64" s="32">
         <v>7.09593799999999</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="23" t="s">
+      <c r="G64" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="65" ht="18" spans="1:7">
+    <row r="65" spans="1:7">
       <c r="A65" s="7"/>
       <c r="B65" s="19"/>
       <c r="C65" s="9" t="s">
@@ -2747,10 +2729,10 @@
       <c r="E65" s="10">
         <v>445.715086999998</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F65" s="20">
         <v>43764</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="22">
         <v>64</v>
       </c>
     </row>
@@ -2764,16 +2746,16 @@
       <c r="C66" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="33">
+      <c r="D66" s="31">
         <v>370</v>
       </c>
-      <c r="E66" s="34">
+      <c r="E66" s="32">
         <v>482.70302</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F66" s="20">
         <v>43770</v>
       </c>
-      <c r="G66" s="22">
+      <c r="G66" s="21">
         <v>60</v>
       </c>
     </row>
@@ -2783,20 +2765,20 @@
       <c r="C67" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="33">
+      <c r="D67" s="31">
         <v>10</v>
       </c>
-      <c r="E67" s="34">
+      <c r="E67" s="32">
         <v>14.660609</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F67" s="20">
         <v>43720</v>
       </c>
-      <c r="G67" s="22">
+      <c r="G67" s="21">
         <v>110</v>
       </c>
     </row>
-    <row r="68" ht="18" spans="1:7">
+    <row r="68" spans="1:7">
       <c r="A68" s="7"/>
       <c r="B68" s="16"/>
       <c r="C68" s="8" t="s">
@@ -2808,10 +2790,10 @@
       <c r="E68" s="10">
         <v>497.363628999999</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F68" s="20">
         <v>43769</v>
       </c>
-      <c r="G68" s="22">
+      <c r="G68" s="21">
         <v>61</v>
       </c>
     </row>
@@ -2822,42 +2804,42 @@
       <c r="B69" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="33">
+      <c r="D69" s="31">
         <v>480</v>
       </c>
-      <c r="E69" s="34">
+      <c r="E69" s="32">
         <v>579.331600999998</v>
       </c>
-      <c r="F69" s="21">
+      <c r="F69" s="20">
         <v>43770</v>
       </c>
-      <c r="G69" s="22">
+      <c r="G69" s="21">
         <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="7"/>
       <c r="B70" s="19"/>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="33">
+      <c r="D70" s="31">
         <v>35</v>
       </c>
-      <c r="E70" s="34">
+      <c r="E70" s="32">
         <v>46.9481890000002</v>
       </c>
-      <c r="F70" s="21">
+      <c r="F70" s="20">
         <v>43752</v>
       </c>
-      <c r="G70" s="22">
+      <c r="G70" s="21">
         <v>78</v>
       </c>
     </row>
-    <row r="71" ht="18" spans="1:7">
+    <row r="71" spans="1:7">
       <c r="A71" s="7"/>
       <c r="B71" s="19"/>
       <c r="C71" s="9" t="s">
@@ -2869,10 +2851,10 @@
       <c r="E71" s="10">
         <v>626.279789999995</v>
       </c>
-      <c r="F71" s="21">
+      <c r="F71" s="20">
         <v>43769</v>
       </c>
-      <c r="G71" s="22">
+      <c r="G71" s="21">
         <v>61</v>
       </c>
     </row>
@@ -2883,42 +2865,42 @@
       <c r="B72" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="33">
+      <c r="D72" s="31">
         <v>650</v>
       </c>
-      <c r="E72" s="34">
+      <c r="E72" s="32">
         <v>804.313490999999</v>
       </c>
-      <c r="F72" s="21">
+      <c r="F72" s="20">
         <v>43776</v>
       </c>
-      <c r="G72" s="22">
+      <c r="G72" s="21">
         <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="7"/>
       <c r="B73" s="19"/>
-      <c r="C73" s="33" t="s">
+      <c r="C73" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="33">
+      <c r="D73" s="31">
         <v>55</v>
       </c>
-      <c r="E73" s="34">
+      <c r="E73" s="32">
         <v>56.8028610000004</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F73" s="20">
         <v>43805</v>
       </c>
-      <c r="G73" s="23">
+      <c r="G73" s="22">
         <v>25</v>
       </c>
     </row>
-    <row r="74" ht="18" spans="1:7">
+    <row r="74" spans="1:7">
       <c r="A74" s="7"/>
       <c r="B74" s="19"/>
       <c r="C74" s="9" t="s">
@@ -2930,10 +2912,10 @@
       <c r="E74" s="10">
         <v>861.116351999996</v>
       </c>
-      <c r="F74" s="21">
+      <c r="F74" s="20">
         <v>43777</v>
       </c>
-      <c r="G74" s="22">
+      <c r="G74" s="21">
         <v>53</v>
       </c>
     </row>
@@ -2944,42 +2926,42 @@
       <c r="B75" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="33" t="s">
+      <c r="C75" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="33">
+      <c r="D75" s="31">
         <v>650</v>
       </c>
-      <c r="E75" s="34">
+      <c r="E75" s="32">
         <v>792.03194</v>
       </c>
-      <c r="F75" s="21">
+      <c r="F75" s="20">
         <v>43762</v>
       </c>
-      <c r="G75" s="22">
+      <c r="G75" s="21">
         <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="7"/>
       <c r="B76" s="19"/>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="33">
+      <c r="D76" s="31">
         <v>160</v>
       </c>
-      <c r="E76" s="34">
+      <c r="E76" s="32">
         <v>148.546128</v>
       </c>
-      <c r="F76" s="21" t="s">
+      <c r="F76" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G76" s="22" t="s">
+      <c r="G76" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" ht="18" spans="1:7">
+    <row r="77" spans="1:7">
       <c r="A77" s="7"/>
       <c r="B77" s="19"/>
       <c r="C77" s="9" t="s">
@@ -2991,10 +2973,10 @@
       <c r="E77" s="10">
         <v>940.578068</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F77" s="20">
         <v>43784</v>
       </c>
-      <c r="G77" s="22">
+      <c r="G77" s="21">
         <v>46</v>
       </c>
     </row>
@@ -3005,42 +2987,42 @@
       <c r="B78" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="33">
+      <c r="D78" s="31">
         <v>440</v>
       </c>
-      <c r="E78" s="34">
+      <c r="E78" s="32">
         <v>509.491071999996</v>
       </c>
-      <c r="F78" s="42">
+      <c r="F78" s="39">
         <v>43782</v>
       </c>
-      <c r="G78" s="23">
+      <c r="G78" s="22">
         <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="7"/>
       <c r="B79" s="19"/>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D79" s="33">
+      <c r="D79" s="31">
         <v>20</v>
       </c>
-      <c r="E79" s="34">
+      <c r="E79" s="32">
         <v>14.831095</v>
       </c>
-      <c r="F79" s="21" t="s">
+      <c r="F79" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G79" s="22" t="s">
+      <c r="G79" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="80" ht="18" spans="1:7">
+    <row r="80" spans="1:7">
       <c r="A80" s="7"/>
       <c r="B80" s="19"/>
       <c r="C80" s="9" t="s">
@@ -3052,10 +3034,10 @@
       <c r="E80" s="10">
         <v>524.322166999995</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F80" s="20">
         <v>43787</v>
       </c>
-      <c r="G80" s="22">
+      <c r="G80" s="21">
         <v>43</v>
       </c>
     </row>
@@ -3066,42 +3048,42 @@
       <c r="B81" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="33">
+      <c r="D81" s="31">
         <v>550</v>
       </c>
-      <c r="E81" s="34">
+      <c r="E81" s="32">
         <v>650.224846999999</v>
       </c>
-      <c r="F81" s="24">
+      <c r="F81" s="23">
         <v>43788</v>
       </c>
-      <c r="G81" s="22">
+      <c r="G81" s="21">
         <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="7"/>
       <c r="B82" s="19"/>
-      <c r="C82" s="33" t="s">
+      <c r="C82" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="33">
+      <c r="D82" s="31">
         <v>30</v>
       </c>
-      <c r="E82" s="34">
+      <c r="E82" s="32">
         <v>36.8182960000001</v>
       </c>
-      <c r="F82" s="21">
+      <c r="F82" s="20">
         <v>43803</v>
       </c>
-      <c r="G82" s="22">
+      <c r="G82" s="21">
         <v>27</v>
       </c>
     </row>
-    <row r="83" ht="18" spans="1:7">
+    <row r="83" spans="1:7">
       <c r="A83" s="7"/>
       <c r="B83" s="19"/>
       <c r="C83" s="9" t="s">
@@ -3113,10 +3095,10 @@
       <c r="E83" s="10">
         <v>687.043142999999</v>
       </c>
-      <c r="F83" s="24">
+      <c r="F83" s="23">
         <v>43789</v>
       </c>
-      <c r="G83" s="22">
+      <c r="G83" s="21">
         <v>41</v>
       </c>
     </row>
@@ -3127,42 +3109,42 @@
       <c r="B84" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="33">
+      <c r="D84" s="31">
         <v>260</v>
       </c>
-      <c r="E84" s="34">
+      <c r="E84" s="32">
         <v>311.850691999999</v>
       </c>
-      <c r="F84" s="21">
+      <c r="F84" s="20">
         <v>43770</v>
       </c>
-      <c r="G84" s="22">
+      <c r="G84" s="21">
         <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="7"/>
       <c r="B85" s="19"/>
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D85" s="33">
+      <c r="D85" s="31">
         <v>30</v>
       </c>
-      <c r="E85" s="34">
+      <c r="E85" s="32">
         <v>14.111649</v>
       </c>
-      <c r="F85" s="21" t="s">
+      <c r="F85" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G85" s="21" t="s">
+      <c r="G85" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="86" ht="18" spans="1:7">
+    <row r="86" spans="1:7">
       <c r="A86" s="7"/>
       <c r="B86" s="19"/>
       <c r="C86" s="9" t="s">
@@ -3174,10 +3156,10 @@
       <c r="E86" s="10">
         <v>325.962340999999</v>
       </c>
-      <c r="F86" s="21">
+      <c r="F86" s="20">
         <v>43792</v>
       </c>
-      <c r="G86" s="22">
+      <c r="G86" s="21">
         <v>38</v>
       </c>
     </row>
@@ -3188,42 +3170,42 @@
       <c r="B87" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C87" s="33" t="s">
+      <c r="C87" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="33">
+      <c r="D87" s="31">
         <v>440</v>
       </c>
-      <c r="E87" s="34">
+      <c r="E87" s="32">
         <v>484.243460999999</v>
       </c>
-      <c r="F87" s="42">
+      <c r="F87" s="39">
         <v>43795</v>
       </c>
-      <c r="G87" s="23">
+      <c r="G87" s="22">
         <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="7"/>
       <c r="B88" s="19"/>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="33">
+      <c r="D88" s="31">
         <v>20</v>
       </c>
-      <c r="E88" s="34">
+      <c r="E88" s="32">
         <v>13.352288</v>
       </c>
-      <c r="F88" s="21" t="s">
+      <c r="F88" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G88" s="22" t="s">
+      <c r="G88" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="89" ht="18" spans="1:7">
+    <row r="89" spans="1:7">
       <c r="A89" s="7"/>
       <c r="B89" s="19"/>
       <c r="C89" s="9" t="s">
@@ -3235,10 +3217,10 @@
       <c r="E89" s="10">
         <v>497.595748999998</v>
       </c>
-      <c r="F89" s="21">
+      <c r="F89" s="20">
         <v>43801</v>
       </c>
-      <c r="G89" s="22">
+      <c r="G89" s="21">
         <v>29</v>
       </c>
     </row>
@@ -3246,60 +3228,60 @@
       <c r="A90" s="7">
         <v>17</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="26">
+      <c r="D90" s="25">
         <v>620</v>
       </c>
-      <c r="E90" s="34">
+      <c r="E90" s="32">
         <v>719.783733</v>
       </c>
-      <c r="F90" s="42">
+      <c r="F90" s="39">
         <v>43795</v>
       </c>
-      <c r="G90" s="23">
+      <c r="G90" s="22">
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="7"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="26" t="s">
+      <c r="B91" s="24"/>
+      <c r="C91" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D91" s="26">
+      <c r="D91" s="25">
         <v>20</v>
       </c>
-      <c r="E91" s="34">
+      <c r="E91" s="32">
         <v>6.23119099999999</v>
       </c>
-      <c r="F91" s="21" t="s">
+      <c r="F91" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="22" t="s">
+      <c r="G91" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="92" ht="18" spans="1:7">
+    <row r="92" spans="1:7">
       <c r="A92" s="7"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="26">
+      <c r="B92" s="24"/>
+      <c r="C92" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="25">
         <v>640</v>
       </c>
       <c r="E92" s="10">
         <v>726.014923999999</v>
       </c>
-      <c r="F92" s="21">
+      <c r="F92" s="20">
         <v>43801</v>
       </c>
-      <c r="G92" s="22">
+      <c r="G92" s="21">
         <v>29</v>
       </c>
     </row>
@@ -3310,42 +3292,42 @@
       <c r="B93" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C93" s="33" t="s">
+      <c r="C93" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="33">
+      <c r="D93" s="31">
         <v>800</v>
       </c>
-      <c r="E93" s="34">
+      <c r="E93" s="32">
         <v>915.997793</v>
       </c>
-      <c r="F93" s="21">
+      <c r="F93" s="20">
         <v>43802</v>
       </c>
-      <c r="G93" s="22">
+      <c r="G93" s="21">
         <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="7"/>
       <c r="B94" s="19"/>
-      <c r="C94" s="33" t="s">
+      <c r="C94" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D94" s="33">
+      <c r="D94" s="31">
         <v>20</v>
       </c>
-      <c r="E94" s="34">
+      <c r="E94" s="32">
         <v>23.887329</v>
       </c>
-      <c r="F94" s="42">
+      <c r="F94" s="39">
         <v>43782</v>
       </c>
-      <c r="G94" s="23">
+      <c r="G94" s="22">
         <v>48</v>
       </c>
     </row>
-    <row r="95" ht="18" spans="1:7">
+    <row r="95" spans="1:7">
       <c r="A95" s="7"/>
       <c r="B95" s="19"/>
       <c r="C95" s="9" t="s">
@@ -3357,10 +3339,10 @@
       <c r="E95" s="10">
         <v>939.885121999998</v>
       </c>
-      <c r="F95" s="21">
+      <c r="F95" s="20">
         <v>43802</v>
       </c>
-      <c r="G95" s="22">
+      <c r="G95" s="21">
         <v>28</v>
       </c>
     </row>
@@ -3374,16 +3356,16 @@
       <c r="C96" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D96" s="33">
+      <c r="D96" s="31">
         <v>780</v>
       </c>
-      <c r="E96" s="34">
+      <c r="E96" s="32">
         <v>846.693978999998</v>
       </c>
-      <c r="F96" s="21">
+      <c r="F96" s="20">
         <v>43804</v>
       </c>
-      <c r="G96" s="22">
+      <c r="G96" s="21">
         <v>26</v>
       </c>
     </row>
@@ -3393,20 +3375,20 @@
       <c r="C97" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D97" s="33">
+      <c r="D97" s="31">
         <v>40</v>
       </c>
-      <c r="E97" s="34">
+      <c r="E97" s="32">
         <v>47.5291600000001</v>
       </c>
-      <c r="F97" s="21">
+      <c r="F97" s="20">
         <v>43710</v>
       </c>
-      <c r="G97" s="22">
+      <c r="G97" s="21">
         <v>120</v>
       </c>
     </row>
-    <row r="98" ht="18" spans="1:7">
+    <row r="98" spans="1:7">
       <c r="A98" s="7"/>
       <c r="B98" s="16"/>
       <c r="C98" s="8" t="s">
@@ -3418,10 +3400,10 @@
       <c r="E98" s="10">
         <v>894.223138999998</v>
       </c>
-      <c r="F98" s="21">
+      <c r="F98" s="20">
         <v>43803</v>
       </c>
-      <c r="G98" s="22">
+      <c r="G98" s="21">
         <v>27</v>
       </c>
     </row>
@@ -3432,43 +3414,43 @@
       <c r="B99" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C99" s="33" t="s">
+      <c r="C99" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="33">
+      <c r="D99" s="31">
         <v>160</v>
       </c>
-      <c r="E99" s="34">
+      <c r="E99" s="32">
         <v>168.147083</v>
       </c>
-      <c r="F99" s="21">
+      <c r="F99" s="20">
         <v>43812</v>
       </c>
-      <c r="G99" s="22">
+      <c r="G99" s="21">
         <v>18</v>
       </c>
-      <c r="K99" s="69"/>
+      <c r="K99" s="65"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="7"/>
       <c r="B100" s="19"/>
-      <c r="C100" s="33" t="s">
+      <c r="C100" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D100" s="33">
+      <c r="D100" s="31">
         <v>50</v>
       </c>
-      <c r="E100" s="34">
+      <c r="E100" s="32">
         <v>51.9786960000001</v>
       </c>
-      <c r="F100" s="21">
+      <c r="F100" s="20">
         <v>43767</v>
       </c>
-      <c r="G100" s="22">
+      <c r="G100" s="21">
         <v>63</v>
       </c>
     </row>
-    <row r="101" ht="18" spans="1:7">
+    <row r="101" spans="1:7">
       <c r="A101" s="7"/>
       <c r="B101" s="19"/>
       <c r="C101" s="9" t="s">
@@ -3480,10 +3462,10 @@
       <c r="E101" s="10">
         <v>220.125779</v>
       </c>
-      <c r="F101" s="21">
+      <c r="F101" s="20">
         <v>43812</v>
       </c>
-      <c r="G101" s="22">
+      <c r="G101" s="21">
         <v>18</v>
       </c>
     </row>
@@ -3494,42 +3476,42 @@
       <c r="B102" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C102" s="33" t="s">
+      <c r="C102" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D102" s="33">
+      <c r="D102" s="31">
         <v>620</v>
       </c>
-      <c r="E102" s="43">
+      <c r="E102" s="32">
         <v>658.052134</v>
       </c>
-      <c r="F102" s="42">
+      <c r="F102" s="39">
         <v>43812</v>
       </c>
-      <c r="G102" s="23">
+      <c r="G102" s="22">
         <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="7"/>
       <c r="B103" s="19"/>
-      <c r="C103" s="33" t="s">
+      <c r="C103" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D103" s="33">
+      <c r="D103" s="31">
         <v>20</v>
       </c>
-      <c r="E103" s="43">
+      <c r="E103" s="32">
         <v>10.790675</v>
       </c>
-      <c r="F103" s="21" t="s">
+      <c r="F103" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G103" s="22" t="s">
+      <c r="G103" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="104" ht="18" spans="1:7">
+    <row r="104" spans="1:7">
       <c r="A104" s="7"/>
       <c r="B104" s="19"/>
       <c r="C104" s="9" t="s">
@@ -3538,13 +3520,13 @@
       <c r="D104" s="9">
         <v>640</v>
       </c>
-      <c r="E104" s="27">
+      <c r="E104" s="10">
         <v>668.842809</v>
       </c>
-      <c r="F104" s="21">
+      <c r="F104" s="20">
         <v>43817</v>
       </c>
-      <c r="G104" s="22">
+      <c r="G104" s="21">
         <v>13</v>
       </c>
     </row>
@@ -3555,42 +3537,42 @@
       <c r="B105" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C105" s="33" t="s">
+      <c r="C105" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D105" s="33">
+      <c r="D105" s="31">
         <v>330</v>
       </c>
-      <c r="E105" s="34">
+      <c r="E105" s="32">
         <v>349.523507</v>
       </c>
-      <c r="F105" s="42">
+      <c r="F105" s="39">
         <v>43810</v>
       </c>
-      <c r="G105" s="23">
+      <c r="G105" s="22">
         <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="7"/>
       <c r="B106" s="19"/>
-      <c r="C106" s="33" t="s">
+      <c r="C106" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D106" s="33">
+      <c r="D106" s="31">
         <v>20</v>
       </c>
-      <c r="E106" s="34">
+      <c r="E106" s="32">
         <v>5.97660899999999</v>
       </c>
-      <c r="F106" s="21" t="s">
+      <c r="F106" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G106" s="22" t="s">
+      <c r="G106" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="107" ht="18" spans="1:7">
+    <row r="107" spans="1:7">
       <c r="A107" s="7"/>
       <c r="B107" s="19"/>
       <c r="C107" s="9" t="s">
@@ -3602,297 +3584,297 @@
       <c r="E107" s="10">
         <v>355.500115999999</v>
       </c>
-      <c r="F107" s="21">
+      <c r="F107" s="20">
         <v>43821</v>
       </c>
-      <c r="G107" s="22">
+      <c r="G107" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="108" ht="18" spans="1:7">
-      <c r="A108" s="44"/>
-      <c r="B108" s="45"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="46"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="49"/>
-    </row>
-    <row r="109" ht="21" spans="1:7">
-      <c r="A109" s="50" t="s">
+    <row r="108" spans="1:7">
+      <c r="A108" s="40"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="45"/>
+    </row>
+    <row r="109" ht="20.4" spans="1:7">
+      <c r="A109" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B109" s="50"/>
-      <c r="C109" s="50"/>
-      <c r="D109" s="50"/>
-      <c r="E109" s="50"/>
-      <c r="F109" s="51"/>
-      <c r="G109" s="52"/>
-    </row>
-    <row r="110" ht="36" spans="1:7">
-      <c r="A110" s="53" t="s">
+      <c r="B109" s="46"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="48"/>
+    </row>
+    <row r="110" ht="34.8" spans="1:7">
+      <c r="A110" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B110" s="53" t="s">
+      <c r="B110" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C110" s="53" t="s">
+      <c r="C110" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D110" s="53" t="s">
+      <c r="D110" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E110" s="53" t="s">
+      <c r="E110" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F110" s="54" t="s">
+      <c r="F110" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G110" s="55" t="s">
+      <c r="G110" s="51" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="56">
+      <c r="A111" s="52">
         <v>1</v>
       </c>
-      <c r="B111" s="57" t="s">
+      <c r="B111" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C111" s="56" t="s">
+      <c r="C111" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="58">
+      <c r="D111" s="54">
         <v>230</v>
       </c>
-      <c r="E111" s="59">
+      <c r="E111" s="55">
         <v>175.913017</v>
       </c>
-      <c r="F111" s="60" t="s">
+      <c r="F111" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G111" s="61" t="s">
+      <c r="G111" s="57" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="56"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="56" t="s">
+      <c r="A112" s="52"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D112" s="58">
+      <c r="D112" s="54">
         <v>30</v>
       </c>
-      <c r="E112" s="59">
+      <c r="E112" s="55">
         <v>37.9688140000001</v>
       </c>
-      <c r="F112" s="60">
+      <c r="F112" s="56">
         <v>43633</v>
       </c>
-      <c r="G112" s="61">
+      <c r="G112" s="57">
         <v>197</v>
       </c>
     </row>
-    <row r="113" ht="18" spans="1:7">
-      <c r="A113" s="56"/>
-      <c r="B113" s="57"/>
-      <c r="C113" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="63">
+    <row r="113" spans="1:7">
+      <c r="A113" s="52"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="59">
         <v>260</v>
       </c>
-      <c r="E113" s="64">
+      <c r="E113" s="60">
         <v>213.881831</v>
       </c>
-      <c r="F113" s="60" t="s">
+      <c r="F113" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G113" s="61" t="s">
+      <c r="G113" s="57" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="56">
+      <c r="A114" s="52">
         <v>2</v>
       </c>
-      <c r="B114" s="65" t="s">
+      <c r="B114" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C114" s="58" t="s">
+      <c r="C114" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D114" s="58">
+      <c r="D114" s="54">
         <v>350</v>
       </c>
-      <c r="E114" s="59">
+      <c r="E114" s="55">
         <v>294.194661</v>
       </c>
-      <c r="F114" s="60" t="s">
+      <c r="F114" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G114" s="61" t="s">
+      <c r="G114" s="57" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="56"/>
-      <c r="B115" s="65"/>
-      <c r="C115" s="58" t="s">
+      <c r="A115" s="52"/>
+      <c r="B115" s="61"/>
+      <c r="C115" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D115" s="58">
+      <c r="D115" s="54">
         <v>5</v>
       </c>
-      <c r="E115" s="59">
+      <c r="E115" s="55">
         <v>5.96931099999999</v>
       </c>
-      <c r="F115" s="60">
+      <c r="F115" s="56">
         <v>43753</v>
       </c>
-      <c r="G115" s="61">
+      <c r="G115" s="57">
         <v>77</v>
       </c>
     </row>
-    <row r="116" ht="18" spans="1:7">
-      <c r="A116" s="56"/>
-      <c r="B116" s="65"/>
-      <c r="C116" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="63">
+    <row r="116" spans="1:7">
+      <c r="A116" s="52"/>
+      <c r="B116" s="61"/>
+      <c r="C116" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="59">
         <v>355</v>
       </c>
-      <c r="E116" s="64">
+      <c r="E116" s="60">
         <v>300.163972</v>
       </c>
-      <c r="F116" s="60" t="s">
+      <c r="F116" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G116" s="61" t="s">
+      <c r="G116" s="57" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="56">
+      <c r="A117" s="52">
         <v>3</v>
       </c>
-      <c r="B117" s="65" t="s">
+      <c r="B117" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C117" s="58" t="s">
+      <c r="C117" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="58">
+      <c r="D117" s="54">
         <v>350</v>
       </c>
-      <c r="E117" s="59">
+      <c r="E117" s="55">
         <v>383.116520999998</v>
       </c>
-      <c r="F117" s="66">
+      <c r="F117" s="62">
         <v>43795</v>
       </c>
-      <c r="G117" s="67">
+      <c r="G117" s="63">
         <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="56"/>
-      <c r="B118" s="65"/>
-      <c r="C118" s="58" t="s">
+      <c r="A118" s="52"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D118" s="58">
+      <c r="D118" s="54">
         <v>120</v>
       </c>
-      <c r="E118" s="59">
+      <c r="E118" s="55">
         <v>48.4820910000001</v>
       </c>
-      <c r="F118" s="60" t="s">
+      <c r="F118" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G118" s="61" t="s">
+      <c r="G118" s="57" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="119" ht="18" spans="1:7">
-      <c r="A119" s="56"/>
-      <c r="B119" s="65"/>
-      <c r="C119" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="63">
+    <row r="119" spans="1:7">
+      <c r="A119" s="52"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="59">
         <v>470</v>
       </c>
-      <c r="E119" s="64">
+      <c r="E119" s="60">
         <v>431.598611999998</v>
       </c>
-      <c r="F119" s="60" t="s">
+      <c r="F119" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G119" s="61" t="s">
+      <c r="G119" s="57" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="56">
+      <c r="A120" s="52">
         <v>5</v>
       </c>
-      <c r="B120" s="65" t="s">
+      <c r="B120" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C120" s="58" t="s">
+      <c r="C120" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="58">
+      <c r="D120" s="54">
         <v>430</v>
       </c>
-      <c r="E120" s="59">
+      <c r="E120" s="55">
         <v>401.96607</v>
       </c>
-      <c r="F120" s="60" t="s">
+      <c r="F120" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G120" s="61" t="s">
+      <c r="G120" s="57" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="56"/>
-      <c r="B121" s="65"/>
-      <c r="C121" s="58" t="s">
+      <c r="A121" s="52"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D121" s="58">
+      <c r="D121" s="54">
         <v>35</v>
       </c>
-      <c r="E121" s="59">
+      <c r="E121" s="55">
         <v>35.227965</v>
       </c>
-      <c r="F121" s="68">
+      <c r="F121" s="64">
         <v>43815</v>
       </c>
-      <c r="G121" s="61">
+      <c r="G121" s="57">
         <v>15</v>
       </c>
     </row>
-    <row r="122" ht="18" spans="1:7">
-      <c r="A122" s="56"/>
-      <c r="B122" s="65"/>
-      <c r="C122" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="63">
+    <row r="122" spans="1:7">
+      <c r="A122" s="52"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="59">
         <v>465</v>
       </c>
-      <c r="E122" s="64">
+      <c r="E122" s="60">
         <v>437.194034999999</v>
       </c>
-      <c r="F122" s="60" t="s">
+      <c r="F122" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G122" s="61" t="s">
+      <c r="G122" s="57" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3986,19 +3968,19 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.42857142857143" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="7.42592592592593" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.42857142857143" customWidth="1"/>
-    <col min="2" max="2" width="13.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="6.42857142857143" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42592592592593" customWidth="1"/>
+    <col min="2" max="2" width="13.4259259259259" customWidth="1"/>
+    <col min="3" max="3" width="6.42592592592593" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="11.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="7.85714285714286" customWidth="1"/>
-    <col min="8" max="16384" width="7.42857142857143" customWidth="1"/>
+    <col min="5" max="5" width="12.8611111111111" customWidth="1"/>
+    <col min="6" max="6" width="11.4259259259259" customWidth="1"/>
+    <col min="7" max="7" width="7.86111111111111" customWidth="1"/>
+    <col min="8" max="16384" width="7.42592592592593" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:7">
+    <row r="1" ht="20.4" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4009,7 +3991,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="36" spans="1:7">
+    <row r="2" ht="34.8" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4032,7 +4014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:7">
+    <row r="3" ht="17.4" spans="1:7">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -4055,7 +4037,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" ht="18" spans="1:7">
+    <row r="4" ht="17.4" spans="1:7">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -4078,7 +4060,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" ht="18" spans="1:7">
+    <row r="5" ht="17.4" spans="1:7">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -4101,7 +4083,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" ht="18" spans="1:7">
+    <row r="6" ht="17.4" spans="1:7">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -4124,7 +4106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="1:7">
+    <row r="7" ht="17.4" spans="1:7">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -4147,7 +4129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="1:7">
+    <row r="8" ht="17.4" spans="1:7">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -4170,7 +4152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="18" spans="1:7">
+    <row r="9" ht="17.4" spans="1:7">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -4193,7 +4175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="18" spans="1:7">
+    <row r="10" ht="17.4" spans="1:7">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -4216,7 +4198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" ht="18" spans="1:7">
+    <row r="11" ht="17.4" spans="1:7">
       <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
@@ -4237,7 +4219,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" ht="21" spans="1:7">
+    <row r="13" ht="20.4" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -4248,7 +4230,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" ht="36" spans="1:7">
+    <row r="14" ht="34.8" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
@@ -4271,7 +4253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="18" spans="1:7">
+    <row r="15" ht="17.4" spans="1:7">
       <c r="A15" s="7">
         <v>1</v>
       </c>
@@ -4294,7 +4276,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" ht="18" spans="1:7">
+    <row r="16" ht="17.4" spans="1:7">
       <c r="A16" s="7">
         <v>2</v>
       </c>
@@ -4317,7 +4299,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" ht="18" spans="1:7">
+    <row r="17" ht="17.4" spans="1:7">
       <c r="A17" s="7">
         <v>3</v>
       </c>
@@ -4340,7 +4322,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" ht="18" spans="1:7">
+    <row r="18" ht="17.4" spans="1:7">
       <c r="A18" s="7">
         <v>4</v>
       </c>
@@ -4363,7 +4345,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" ht="18" spans="1:7">
+    <row r="19" ht="17.4" spans="1:7">
       <c r="A19" s="7">
         <v>5</v>
       </c>
@@ -4386,7 +4368,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" ht="18" spans="1:7">
+    <row r="20" ht="17.4" spans="1:7">
       <c r="A20" s="7">
         <v>6</v>
       </c>
@@ -4399,17 +4381,17 @@
       <c r="D20" s="9">
         <v>430</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="10">
         <v>542.983618</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>43760</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="21">
         <v>70</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="1:7">
+    <row r="21" ht="17.4" spans="1:7">
       <c r="A21" s="7">
         <v>7</v>
       </c>
@@ -4432,7 +4414,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="1:7">
+    <row r="22" ht="17.4" spans="1:7">
       <c r="A22" s="7">
         <v>8</v>
       </c>
@@ -4448,14 +4430,14 @@
       <c r="E22" s="10">
         <v>445.715086999998</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>43764</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>64</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="1:7">
+    <row r="23" ht="17.4" spans="1:7">
       <c r="A23" s="7">
         <v>9</v>
       </c>
@@ -4471,14 +4453,14 @@
       <c r="E23" s="10">
         <v>497.363628999999</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <v>43769</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="21">
         <v>61</v>
       </c>
     </row>
-    <row r="24" ht="18" spans="1:7">
+    <row r="24" ht="17.4" spans="1:7">
       <c r="A24" s="7">
         <v>10</v>
       </c>
@@ -4494,14 +4476,14 @@
       <c r="E24" s="10">
         <v>626.279789999995</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="20">
         <v>43769</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="21">
         <v>61</v>
       </c>
     </row>
-    <row r="25" ht="18" spans="1:7">
+    <row r="25" ht="17.4" spans="1:7">
       <c r="A25" s="7">
         <v>11</v>
       </c>
@@ -4517,14 +4499,14 @@
       <c r="E25" s="10">
         <v>861.116351999996</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="20">
         <v>43777</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="21">
         <v>53</v>
       </c>
     </row>
-    <row r="26" ht="18" spans="1:7">
+    <row r="26" ht="17.4" spans="1:7">
       <c r="A26" s="7">
         <v>12</v>
       </c>
@@ -4540,14 +4522,14 @@
       <c r="E26" s="10">
         <v>940.578068</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <v>43784</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="21">
         <v>46</v>
       </c>
     </row>
-    <row r="27" ht="18" spans="1:7">
+    <row r="27" ht="17.4" spans="1:7">
       <c r="A27" s="7">
         <v>13</v>
       </c>
@@ -4563,14 +4545,14 @@
       <c r="E27" s="10">
         <v>524.322166999995</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <v>43787</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="21">
         <v>43</v>
       </c>
     </row>
-    <row r="28" ht="18" spans="1:7">
+    <row r="28" ht="17.4" spans="1:7">
       <c r="A28" s="7">
         <v>14</v>
       </c>
@@ -4586,14 +4568,14 @@
       <c r="E28" s="10">
         <v>687.043142999999</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="23">
         <v>43789</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="21">
         <v>41</v>
       </c>
     </row>
-    <row r="29" ht="18" spans="1:7">
+    <row r="29" ht="17.4" spans="1:7">
       <c r="A29" s="7">
         <v>15</v>
       </c>
@@ -4609,14 +4591,14 @@
       <c r="E29" s="10">
         <v>325.962340999999</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <v>43792</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="21">
         <v>38</v>
       </c>
     </row>
-    <row r="30" ht="18" spans="1:7">
+    <row r="30" ht="17.4" spans="1:7">
       <c r="A30" s="7">
         <v>16</v>
       </c>
@@ -4632,37 +4614,37 @@
       <c r="E30" s="10">
         <v>497.595748999998</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <v>43801</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="21">
         <v>29</v>
       </c>
     </row>
-    <row r="31" ht="18" spans="1:7">
+    <row r="31" ht="17.4" spans="1:7">
       <c r="A31" s="7">
         <v>17</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="26">
+      <c r="C31" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="25">
         <v>640</v>
       </c>
       <c r="E31" s="10">
         <v>726.014923999999</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <v>43801</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="21">
         <v>29</v>
       </c>
     </row>
-    <row r="32" ht="18" spans="1:7">
+    <row r="32" ht="17.4" spans="1:7">
       <c r="A32" s="7">
         <v>18</v>
       </c>
@@ -4678,14 +4660,14 @@
       <c r="E32" s="10">
         <v>939.885121999998</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <v>43802</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="21">
         <v>28</v>
       </c>
     </row>
-    <row r="33" ht="18" spans="1:7">
+    <row r="33" ht="17.4" spans="1:7">
       <c r="A33" s="7">
         <v>19</v>
       </c>
@@ -4701,14 +4683,14 @@
       <c r="E33" s="10">
         <v>894.223138999998</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="20">
         <v>43803</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="21">
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="18" spans="1:7">
+    <row r="34" ht="17.4" spans="1:7">
       <c r="A34" s="7">
         <v>20</v>
       </c>
@@ -4724,14 +4706,14 @@
       <c r="E34" s="10">
         <v>220.125779</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="20">
         <v>43812</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="21">
         <v>18</v>
       </c>
     </row>
-    <row r="35" ht="18" spans="1:7">
+    <row r="35" ht="17.4" spans="1:7">
       <c r="A35" s="7">
         <v>21</v>
       </c>
@@ -4744,17 +4726,17 @@
       <c r="D35" s="9">
         <v>640</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="10">
         <v>668.842809</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="20">
         <v>43817</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="36" ht="18" spans="1:7">
+    <row r="36" ht="17.4" spans="1:7">
       <c r="A36" s="7">
         <v>22</v>
       </c>
@@ -4770,10 +4752,10 @@
       <c r="E36" s="10">
         <v>355.500115999999</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <v>43821</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="21">
         <v>9</v>
       </c>
     </row>
